--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2237046.534522837</v>
+        <v>-2239629.566592566</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>230.2937278316589</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>46.42246812243154</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554014</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.97814040425002</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>169.5712711438931</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>183.7712894657354</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.0901856147613</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>56.27259203479546</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.41670903610059</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>97.32228826427043</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.2537595499126</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>249.6351755834639</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>41.45663519202398</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176089</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>95.25381996635917</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>202.3807982253685</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>269.0987184306177</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.4765410832876</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>96.04906679049586</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.01175877060106</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.0656089242822</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>22.61263105777426</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>72.78315874934658</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,25 +2713,25 @@
         <v>171.0385136149754</v>
       </c>
       <c r="C28" t="n">
-        <v>158.453354531666</v>
+        <v>158.4533545316659</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512505</v>
+        <v>139.8220064512504</v>
       </c>
       <c r="E28" t="n">
         <v>137.6404960796073</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559694</v>
+        <v>136.6275814559693</v>
       </c>
       <c r="G28" t="n">
-        <v>156.730671725307</v>
+        <v>156.7306717253069</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160362</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.5817801431598</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346827</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603264</v>
+        <v>200.6056834188349</v>
       </c>
       <c r="U28" t="n">
         <v>277.3910078222822</v>
@@ -2773,10 +2773,10 @@
         <v>243.3441767568661</v>
       </c>
       <c r="W28" t="n">
-        <v>112.381001601899</v>
+        <v>277.7295317696291</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220753</v>
+        <v>216.9161888220752</v>
       </c>
       <c r="Y28" t="n">
         <v>209.7911867851329</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541839</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652582</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,19 +4135,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1049.69844747624</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.852659508903</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
@@ -4407,22 +4407,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,19 +4440,19 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>217.4203875707505</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>217.4203875707504</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>217.4203875707504</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>217.4203875707504</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>70.53044007284007</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>70.53044007284007</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>70.53044007284007</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4507,31 +4507,31 @@
         <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757128</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025393</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="T4" t="n">
-        <v>468.0865521359806</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="U4" t="n">
-        <v>468.0865521359806</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="V4" t="n">
-        <v>213.4020639300938</v>
+        <v>666.2025176122979</v>
       </c>
       <c r="W4" t="n">
-        <v>213.4020639300938</v>
+        <v>666.2025176122979</v>
       </c>
       <c r="X4" t="n">
-        <v>213.4020639300938</v>
+        <v>438.2129667142806</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.4020639300938</v>
+        <v>217.4203875707505</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3029.687588019362</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3029.687588019362</v>
       </c>
       <c r="V5" t="n">
-        <v>2691.069367567292</v>
+        <v>2698.624700675791</v>
       </c>
       <c r="W5" t="n">
-        <v>2691.069367567292</v>
+        <v>2698.624700675791</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.603609306213</v>
+        <v>2325.158942414711</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.464277330401</v>
+        <v>1935.019610438899</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>980.7518458718754</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>811.8156629439685</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>661.6990235316327</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>513.7859299492396</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>366.8959824513292</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.8634178877041</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653545</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C10" t="n">
         <v>507.5323442946291</v>
@@ -4948,19 +4948,19 @@
         <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1171.854848228773</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>917.1703600228861</v>
+        <v>1596.316292131284</v>
       </c>
       <c r="W10" t="n">
-        <v>917.1703600228861</v>
+        <v>1306.899122094323</v>
       </c>
       <c r="X10" t="n">
-        <v>689.1808091248688</v>
+        <v>1078.909571196306</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.1808091248688</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5060,19 +5060,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740071</v>
+        <v>1053.171308869724</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121641</v>
+        <v>884.2351259418167</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>734.1184865294809</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>586.2053929470878</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>439.3154454491774</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>272.1193461640574</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797742</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138409</v>
+        <v>1455.612352843493</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703107</v>
+        <v>1234.819773699963</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,13 +5291,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660704</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
         <v>612.4182386381636</v>
@@ -5440,10 +5440,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1992.637496775073</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1703.562270119271</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1448.877781913384</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1159.460611876424</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963101</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3473.939263755757</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>1028.490320362746</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>859.5541374348386</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>709.437498022503</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>561.5244044401097</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>414.6344569421994</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703108</v>
+        <v>1210.138785192985</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,16 +5908,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138412</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400708</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400708</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576776</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,16 +6245,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>830.4571784457497</v>
+        <v>903.6615923362585</v>
       </c>
       <c r="C28" t="n">
-        <v>670.4032849794205</v>
+        <v>743.6076988699293</v>
       </c>
       <c r="D28" t="n">
-        <v>529.1689350286624</v>
+        <v>602.3733489191712</v>
       </c>
       <c r="E28" t="n">
-        <v>390.138130907847</v>
+        <v>463.3425447983558</v>
       </c>
       <c r="F28" t="n">
-        <v>252.1304728715143</v>
+        <v>325.3348867620232</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>167.0210769384806</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>167.0210769384806</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>182.758213379588</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064189</v>
+        <v>453.1530078064188</v>
       </c>
       <c r="L28" t="n">
         <v>852.2571338836512</v>
@@ -6403,31 +6403,31 @@
         <v>2388.703572162407</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790599</v>
+        <v>2516.607338790598</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504579</v>
+        <v>2516.607338790598</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621061</v>
+        <v>2516.607338790598</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105579</v>
+        <v>2313.975335337229</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911355</v>
+        <v>2033.782398143005</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167045</v>
+        <v>1787.980199398696</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.240904932804</v>
+        <v>1507.445318823313</v>
       </c>
       <c r="X28" t="n">
-        <v>1215.133643496364</v>
+        <v>1288.338057386873</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.223353814412</v>
+        <v>1076.427767704921</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,7 +6622,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6643,25 +6643,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7075,43 +7075,43 @@
         <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311314</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7160,46 +7160,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,10 +7318,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.15426255076</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790047</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285115</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>124.389313789024</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>302.8185005949815</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>92.37428000558808</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>49.97767813227607</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -22768,10 +22768,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664515</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>45.04089287986472</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>15.02465210191978</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>17.42427990597329</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.35543909864968</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.47507150177299</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.8202214113362</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6820817884496</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>179.3544845744814</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>131.501246279262</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160364</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014315978</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.2328194346827</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>8.006300341491489</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>165.3485301677301</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1365389.321711032</v>
+        <v>1365389.321711031</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1373816.981475763</v>
+        <v>1373816.981475762</v>
       </c>
     </row>
     <row r="11">
@@ -26320,10 +26320,10 @@
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675043</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="G2" t="n">
         <v>60535.99497675044</v>
@@ -26350,10 +26350,10 @@
         <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.975650847</v>
+        <v>224565.9756508469</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006226</v>
+        <v>12392.94474006224</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569533</v>
+        <v>7034.773253569514</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006222</v>
+        <v>12392.94474006223</v>
       </c>
     </row>
     <row r="4">
@@ -26421,13 +26421,13 @@
         <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820641</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="F4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14216.75207685504</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685507</v>
@@ -26436,25 +26436,25 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="J4" t="n">
-        <v>17110.24080442843</v>
+        <v>17110.2408044285</v>
       </c>
       <c r="K4" t="n">
+        <v>22207.61133994851</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22207.61133994855</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22207.61133994851</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22207.61133994853</v>
+      </c>
+      <c r="O4" t="n">
         <v>22207.61133994852</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22207.61133994851</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22207.61133994853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22207.61133994846</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22207.61133994851</v>
       </c>
       <c r="P4" t="n">
         <v>22207.61133994851</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1387907.18667268</v>
+        <v>-1388314.586210496</v>
       </c>
       <c r="C6" t="n">
         <v>-139759.5946697784</v>
       </c>
       <c r="D6" t="n">
-        <v>-139759.5946697784</v>
+        <v>-139759.5946697783</v>
       </c>
       <c r="E6" t="n">
-        <v>-380215.7487313669</v>
+        <v>-380250.4866568025</v>
       </c>
       <c r="F6" t="n">
-        <v>-54803.28692401171</v>
+        <v>-54838.02484944741</v>
       </c>
       <c r="G6" t="n">
-        <v>-54803.28692401174</v>
+        <v>-54838.02484944744</v>
       </c>
       <c r="H6" t="n">
-        <v>-54803.28692401173</v>
+        <v>-54838.02484944741</v>
       </c>
       <c r="I6" t="n">
-        <v>-54803.28692401176</v>
+        <v>-54838.02484944743</v>
       </c>
       <c r="J6" t="n">
-        <v>-282624.6513433367</v>
+        <v>-282646.8106721086</v>
       </c>
       <c r="K6" t="n">
-        <v>-76186.53919410493</v>
+        <v>-76186.53919410492</v>
       </c>
       <c r="L6" t="n">
-        <v>-63793.59445404267</v>
+        <v>-63793.59445404251</v>
       </c>
       <c r="M6" t="n">
         <v>-148848.6223895545</v>
       </c>
       <c r="N6" t="n">
-        <v>-63793.59445404261</v>
+        <v>-63793.59445404266</v>
       </c>
       <c r="O6" t="n">
-        <v>-70828.36770761221</v>
+        <v>-70828.36770761217</v>
       </c>
       <c r="P6" t="n">
         <v>-76186.53919410487</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507782</v>
+        <v>15.49118092507781</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961916</v>
+        <v>8.793466566961893</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507778</v>
+        <v>15.49118092507779</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507782</v>
+        <v>15.49118092507781</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>20.14668067388479</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>263.6620728553736</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>109.7532162242328</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.1679443159942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>11.86547352390541</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.984179106141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>36.57666262214897</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>210.681008131804</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-9.83188879184554e-13</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961891</v>
+        <v>8.793466566961904</v>
       </c>
     </row>
     <row r="29">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33026,10 +33026,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,13 +33655,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391496</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451602</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>604.2458225991924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989906</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010445</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36674,10 +36674,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991526</v>
+        <v>89.83994982991527</v>
       </c>
       <c r="K28" t="n">
         <v>273.1260549765968</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558163</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591387</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>472.904110515859</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
